--- a/Classification/unlabeled_profiles.xlsx
+++ b/Classification/unlabeled_profiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Documents\GitHub\CERProject23MC\Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2952502-2AF4-4863-9A36-4C4B266FD3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C383269-2D23-4A03-9EE0-88FCE0D7220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18331,13 +18331,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1980"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="D178" workbookViewId="0">
+      <selection activeCell="H201" sqref="H201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="160.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="32" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -18385,6 +18389,9 @@
       <c r="F2" t="s">
         <v>5944</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -18405,6 +18412,9 @@
       <c r="F3" t="s">
         <v>5944</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -18425,6 +18435,9 @@
       <c r="F4" t="s">
         <v>2186</v>
       </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -18445,6 +18458,9 @@
       <c r="F5" t="s">
         <v>5945</v>
       </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -18465,6 +18481,9 @@
       <c r="F6" t="s">
         <v>2006</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -18485,6 +18504,9 @@
       <c r="F7" t="s">
         <v>5945</v>
       </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -18505,6 +18527,9 @@
       <c r="F8" t="s">
         <v>5946</v>
       </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -18525,6 +18550,9 @@
       <c r="F9" t="s">
         <v>5945</v>
       </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -18545,6 +18573,9 @@
       <c r="F10" t="s">
         <v>2186</v>
       </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -18565,6 +18596,9 @@
       <c r="F11" t="s">
         <v>5945</v>
       </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -18585,6 +18619,9 @@
       <c r="F12" t="s">
         <v>2200</v>
       </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -18605,6 +18642,9 @@
       <c r="F13" t="s">
         <v>5945</v>
       </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -18625,6 +18665,9 @@
       <c r="F14" t="s">
         <v>2186</v>
       </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -18645,6 +18688,9 @@
       <c r="F15" t="s">
         <v>2186</v>
       </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -18665,8 +18711,11 @@
       <c r="F16" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -18685,8 +18734,11 @@
       <c r="F17" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -18705,8 +18757,11 @@
       <c r="F18" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -18725,8 +18780,11 @@
       <c r="F19" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -18745,8 +18803,11 @@
       <c r="F20" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -18765,8 +18826,11 @@
       <c r="F21" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -18785,8 +18849,11 @@
       <c r="F22" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -18805,8 +18872,11 @@
       <c r="F23" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -18825,8 +18895,11 @@
       <c r="F24" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -18845,8 +18918,11 @@
       <c r="F25" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -18865,8 +18941,11 @@
       <c r="F26" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -18885,8 +18964,11 @@
       <c r="F27" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -18905,8 +18987,11 @@
       <c r="F28" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -18925,8 +19010,11 @@
       <c r="F29" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -18945,8 +19033,11 @@
       <c r="F30" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -18965,8 +19056,11 @@
       <c r="F31" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -18985,8 +19079,11 @@
       <c r="F32" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -19005,8 +19102,11 @@
       <c r="F33" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -19025,8 +19125,11 @@
       <c r="F34" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -19045,8 +19148,11 @@
       <c r="F35" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -19065,8 +19171,11 @@
       <c r="F36" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -19085,8 +19194,11 @@
       <c r="F37" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -19105,8 +19217,11 @@
       <c r="F38" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -19125,8 +19240,11 @@
       <c r="F39" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -19145,8 +19263,11 @@
       <c r="F40" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -19165,8 +19286,11 @@
       <c r="F41" t="s">
         <v>5948</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -19185,8 +19309,11 @@
       <c r="F42" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -19205,8 +19332,11 @@
       <c r="F43" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -19225,8 +19355,11 @@
       <c r="F44" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -19245,8 +19378,11 @@
       <c r="F45" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -19265,8 +19401,11 @@
       <c r="F46" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -19285,8 +19424,11 @@
       <c r="F47" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -19305,8 +19447,11 @@
       <c r="F48" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -19325,8 +19470,11 @@
       <c r="F49" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -19345,8 +19493,11 @@
       <c r="F50" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -19365,8 +19516,11 @@
       <c r="F51" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -19385,8 +19539,11 @@
       <c r="F52" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -19405,8 +19562,11 @@
       <c r="F53" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -19425,8 +19585,11 @@
       <c r="F54" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -19445,8 +19608,11 @@
       <c r="F55" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -19465,8 +19631,11 @@
       <c r="F56" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -19485,8 +19654,11 @@
       <c r="F57" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -19505,8 +19677,11 @@
       <c r="F58" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -19525,8 +19700,11 @@
       <c r="F59" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -19545,8 +19723,11 @@
       <c r="F60" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -19565,8 +19746,11 @@
       <c r="F61" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -19585,8 +19769,11 @@
       <c r="F62" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -19605,8 +19792,11 @@
       <c r="F63" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -19625,8 +19815,11 @@
       <c r="F64" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -19645,8 +19838,11 @@
       <c r="F65" t="s">
         <v>5949</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -19665,8 +19861,11 @@
       <c r="F66" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -19685,8 +19884,11 @@
       <c r="F67" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -19705,8 +19907,11 @@
       <c r="F68" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -19725,8 +19930,11 @@
       <c r="F69" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -19745,8 +19953,11 @@
       <c r="F70" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -19765,8 +19976,11 @@
       <c r="F71" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -19785,8 +19999,11 @@
       <c r="F72" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -19805,8 +20022,11 @@
       <c r="F73" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -19825,8 +20045,11 @@
       <c r="F74" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -19845,8 +20068,11 @@
       <c r="F75" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -19865,8 +20091,11 @@
       <c r="F76" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -19885,8 +20114,11 @@
       <c r="F77" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -19905,8 +20137,11 @@
       <c r="F78" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -19925,8 +20160,11 @@
       <c r="F79" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -19945,8 +20183,11 @@
       <c r="F80" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -19965,8 +20206,11 @@
       <c r="F81" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -19985,8 +20229,11 @@
       <c r="F82" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -20005,8 +20252,11 @@
       <c r="F83" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -20025,8 +20275,11 @@
       <c r="F84" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -20045,8 +20298,11 @@
       <c r="F85" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -20065,8 +20321,11 @@
       <c r="F86" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -20085,8 +20344,11 @@
       <c r="F87" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -20105,8 +20367,11 @@
       <c r="F88" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -20125,8 +20390,11 @@
       <c r="F89" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -20145,8 +20413,11 @@
       <c r="F90" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -20165,8 +20436,11 @@
       <c r="F91" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -20185,8 +20459,11 @@
       <c r="F92" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -20205,8 +20482,11 @@
       <c r="F93" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -20225,8 +20505,11 @@
       <c r="F94" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -20245,8 +20528,11 @@
       <c r="F95" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -20265,8 +20551,11 @@
       <c r="F96" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -20285,8 +20574,11 @@
       <c r="F97" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -20305,8 +20597,11 @@
       <c r="F98" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -20325,8 +20620,11 @@
       <c r="F99" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -20345,8 +20643,11 @@
       <c r="F100" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -20365,8 +20666,11 @@
       <c r="F101" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -20385,8 +20689,11 @@
       <c r="F102" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -20405,8 +20712,11 @@
       <c r="F103" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -20425,8 +20735,11 @@
       <c r="F104" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -20445,8 +20758,11 @@
       <c r="F105" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -20465,8 +20781,11 @@
       <c r="F106" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -20485,8 +20804,11 @@
       <c r="F107" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -20505,8 +20827,11 @@
       <c r="F108" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -20525,8 +20850,11 @@
       <c r="F109" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -20545,8 +20873,11 @@
       <c r="F110" t="s">
         <v>5950</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -20565,8 +20896,11 @@
       <c r="F111" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -20585,8 +20919,11 @@
       <c r="F112" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -20605,8 +20942,11 @@
       <c r="F113" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -20625,8 +20965,11 @@
       <c r="F114" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -20645,8 +20988,11 @@
       <c r="F115" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -20665,8 +21011,11 @@
       <c r="F116" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -20685,8 +21034,11 @@
       <c r="F117" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -20705,8 +21057,11 @@
       <c r="F118" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -20725,8 +21080,11 @@
       <c r="F119" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -20745,8 +21103,11 @@
       <c r="F120" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -20765,8 +21126,11 @@
       <c r="F121" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -20785,8 +21149,11 @@
       <c r="F122" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -20805,8 +21172,11 @@
       <c r="F123" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -20825,8 +21195,11 @@
       <c r="F124" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -20845,8 +21218,11 @@
       <c r="F125" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -20865,8 +21241,11 @@
       <c r="F126" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -20885,8 +21264,11 @@
       <c r="F127" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -20905,8 +21287,11 @@
       <c r="F128" t="s">
         <v>5951</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -20925,8 +21310,11 @@
       <c r="F129" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -20945,8 +21333,11 @@
       <c r="F130" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -20965,8 +21356,11 @@
       <c r="F131" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -20985,8 +21379,11 @@
       <c r="F132" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -21005,8 +21402,11 @@
       <c r="F133" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -21025,8 +21425,11 @@
       <c r="F134" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -21045,8 +21448,11 @@
       <c r="F135" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -21065,8 +21471,11 @@
       <c r="F136" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -21085,8 +21494,11 @@
       <c r="F137" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -21105,8 +21517,11 @@
       <c r="F138" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -21125,8 +21540,11 @@
       <c r="F139" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H139">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -21145,8 +21563,11 @@
       <c r="F140" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -21165,8 +21586,11 @@
       <c r="F141" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -21185,8 +21609,11 @@
       <c r="F142" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -21205,8 +21632,11 @@
       <c r="F143" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -21225,8 +21655,11 @@
       <c r="F144" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -21245,8 +21678,11 @@
       <c r="F145" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -21265,8 +21701,11 @@
       <c r="F146" t="s">
         <v>5949</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -21285,8 +21724,11 @@
       <c r="F147" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -21305,8 +21747,11 @@
       <c r="F148" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -21325,8 +21770,11 @@
       <c r="F149" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -21345,8 +21793,11 @@
       <c r="F150" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -21365,8 +21816,11 @@
       <c r="F151" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -21385,8 +21839,11 @@
       <c r="F152" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -21405,8 +21862,11 @@
       <c r="F153" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -21425,8 +21885,11 @@
       <c r="F154" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -21445,8 +21908,11 @@
       <c r="F155" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -21465,8 +21931,11 @@
       <c r="F156" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -21485,8 +21954,11 @@
       <c r="F157" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -21505,8 +21977,11 @@
       <c r="F158" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -21525,8 +22000,11 @@
       <c r="F159" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H159">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -21545,8 +22023,11 @@
       <c r="F160" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -21565,8 +22046,11 @@
       <c r="F161" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H161">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -21585,8 +22069,11 @@
       <c r="F162" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -21605,8 +22092,11 @@
       <c r="F163" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H163">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -21625,8 +22115,11 @@
       <c r="F164" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -21645,8 +22138,11 @@
       <c r="F165" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H165">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -21665,8 +22161,11 @@
       <c r="F166" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H166">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -21685,8 +22184,11 @@
       <c r="F167" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -21705,8 +22207,11 @@
       <c r="F168" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -21725,8 +22230,11 @@
       <c r="F169" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H169">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -21745,8 +22253,11 @@
       <c r="F170" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H170">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -21765,8 +22276,11 @@
       <c r="F171" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -21785,8 +22299,11 @@
       <c r="F172" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -21805,8 +22322,11 @@
       <c r="F173" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -21825,8 +22345,11 @@
       <c r="F174" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H174">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -21845,8 +22368,11 @@
       <c r="F175" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -21865,8 +22391,11 @@
       <c r="F176" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -21885,8 +22414,11 @@
       <c r="F177" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -21905,8 +22437,11 @@
       <c r="F178" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -21925,8 +22460,11 @@
       <c r="F179" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -21945,8 +22483,11 @@
       <c r="F180" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -21965,8 +22506,11 @@
       <c r="F181" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -21985,8 +22529,11 @@
       <c r="F182" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -22005,8 +22552,11 @@
       <c r="F183" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -22025,8 +22575,11 @@
       <c r="F184" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -22045,8 +22598,11 @@
       <c r="F185" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -22065,8 +22621,11 @@
       <c r="F186" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -22085,8 +22644,11 @@
       <c r="F187" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -22105,8 +22667,11 @@
       <c r="F188" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -22125,8 +22690,11 @@
       <c r="F189" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -22145,8 +22713,11 @@
       <c r="F190" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -22165,8 +22736,11 @@
       <c r="F191" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -22185,8 +22759,11 @@
       <c r="F192" t="s">
         <v>5952</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -22205,8 +22782,11 @@
       <c r="F193" t="s">
         <v>2186</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -22225,8 +22805,11 @@
       <c r="F194" t="s">
         <v>5947</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -22245,8 +22828,11 @@
       <c r="F195" t="s">
         <v>2006</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -22265,8 +22851,11 @@
       <c r="F196" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H196">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -22285,8 +22874,11 @@
       <c r="F197" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -22305,8 +22897,11 @@
       <c r="F198" t="s">
         <v>5945</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -22325,8 +22920,11 @@
       <c r="F199" t="s">
         <v>5949</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -22345,8 +22943,11 @@
       <c r="F200" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -22366,7 +22967,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -22386,7 +22987,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -22406,7 +23007,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -22426,7 +23027,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -22446,7 +23047,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -22466,7 +23067,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -22486,7 +23087,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>214</v>
       </c>
